--- a/webroot/uploads/MNQN 2.xlsx
+++ b/webroot/uploads/MNQN 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tre-PH" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Thống kê kết nối internet của đơn vị</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Học sinh</t>
   </si>
   <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
     <t>Giáo viên</t>
   </si>
   <si>
@@ -239,13 +236,19 @@
   </si>
   <si>
     <t>Địa chỉ di tích lịch sử, văn hóa tại địa phương được trường nhận chăm sóc</t>
+  </si>
+  <si>
+    <t>olimpic</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,12 +270,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Times New Roman"/>
@@ -372,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -584,6 +581,155 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -604,7 +750,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +761,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,192 +774,27 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,9 +805,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -838,39 +816,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,67 +845,73 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,35 +924,46 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1357,17 +1339,17 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1390,20 +1372,20 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:16" ht="36" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="39" t="s">
         <v>12</v>
       </c>
@@ -1415,42 +1397,42 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="2:16" ht="36" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="37" t="s">
@@ -1458,125 +1440,118 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="36" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="2:16" ht="36" customHeight="1">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>200</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>10</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>20</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>20</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>20</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="16">
         <v>33</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>30</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
         <v>1</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="36" customHeight="1">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>300</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>20</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>20</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>20</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="18">
         <v>32</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="19">
         <v>32</v>
       </c>
-      <c r="L8" s="26">
-        <v>0</v>
-      </c>
-      <c r="M8" s="26">
-        <v>0</v>
-      </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
@@ -1588,8 +1563,15 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1602,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R10"/>
+  <dimension ref="B1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1637,19 +1619,19 @@
     <row r="2" spans="2:18" ht="22" customHeight="1" thickBot="1">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="2:18" ht="22" customHeight="1" thickTop="1">
       <c r="C3" s="2"/>
@@ -1663,202 +1645,303 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:18" ht="22" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="60" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="55" t="s">
+      <c r="M4" s="49"/>
+      <c r="N4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="22" customHeight="1">
-      <c r="B5" s="50"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="30" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="31" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="58"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="2:18" ht="22" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="20"/>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="22" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="20"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="22" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="72">
+        <v>10</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0</v>
+      </c>
+      <c r="E8" s="72">
+        <v>4</v>
+      </c>
+      <c r="F8" s="72">
+        <v>0</v>
+      </c>
+      <c r="G8" s="72">
+        <v>0</v>
+      </c>
+      <c r="H8" s="72">
+        <v>9</v>
+      </c>
+      <c r="I8" s="72">
+        <v>1</v>
+      </c>
+      <c r="J8" s="72">
+        <v>0</v>
+      </c>
+      <c r="K8" s="73">
+        <v>10</v>
+      </c>
+      <c r="L8" s="73">
+        <v>0</v>
+      </c>
+      <c r="M8" s="73">
+        <v>0</v>
+      </c>
+      <c r="N8" s="73">
+        <v>2</v>
+      </c>
+      <c r="O8" s="72">
+        <v>0</v>
+      </c>
+      <c r="P8" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="72">
+        <v>0</v>
+      </c>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="2:18" ht="22" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="2:18" ht="22" customHeight="1">
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="2:18" ht="22" customHeight="1">
-      <c r="B10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="22"/>
+      <c r="C9" s="72">
+        <v>5</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0</v>
+      </c>
+      <c r="E9" s="72">
+        <v>0</v>
+      </c>
+      <c r="F9" s="72">
+        <v>0</v>
+      </c>
+      <c r="G9" s="72">
+        <v>0</v>
+      </c>
+      <c r="H9" s="72">
+        <v>5</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0</v>
+      </c>
+      <c r="J9" s="72">
+        <v>0</v>
+      </c>
+      <c r="K9" s="73">
+        <v>0</v>
+      </c>
+      <c r="L9" s="73">
+        <v>0</v>
+      </c>
+      <c r="M9" s="73">
+        <v>0</v>
+      </c>
+      <c r="N9" s="73">
+        <v>0</v>
+      </c>
+      <c r="O9" s="72">
+        <v>0</v>
+      </c>
+      <c r="P9" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="72">
+        <v>0</v>
+      </c>
+      <c r="R9" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1873,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1889,34 +1972,34 @@
   <sheetData>
     <row r="1" spans="2:11" ht="22" customHeight="1"/>
     <row r="2" spans="2:11" ht="22" customHeight="1" thickBot="1">
-      <c r="B2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="22" customHeight="1" thickTop="1"/>
     <row r="4" spans="2:11" ht="37" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:11" ht="22" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1930,10 +2013,10 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="29"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11" ht="22" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -1945,7 +2028,7 @@
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +2042,7 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1982,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N9"/>
+  <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2008,17 +2091,17 @@
     </row>
     <row r="2" spans="2:14" ht="22" customHeight="1">
       <c r="C2" s="2"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
@@ -2030,138 +2113,161 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="22" customHeight="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="69" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="22" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="71" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="71" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="43"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="2:14" ht="14">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="2:14" ht="14">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="22" customHeight="1">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" ht="22" customHeight="1">
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="D8" s="12">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="12">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>5</v>
+      </c>
+      <c r="M8" s="12">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2176,6 +2282,7 @@
     <mergeCell ref="F4:M4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2202,134 +2309,134 @@
   <sheetData>
     <row r="1" spans="2:14" ht="22" customHeight="1"/>
     <row r="2" spans="2:14" ht="22" customHeight="1">
-      <c r="D2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="D2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="2:14" ht="22" customHeight="1"/>
     <row r="4" spans="2:14" ht="22" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="5" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="22" customHeight="1">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="71">
         <v>123</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="76">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="71">
         <v>123</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="6">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="5">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="22" customHeight="1">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="6"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14" ht="22" customHeight="1">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="6"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:14" ht="22" customHeight="1">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="6"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="2:14" ht="22" customHeight="1">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="6"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
